--- a/xlsx/英国殖民地_intext.xlsx
+++ b/xlsx/英国殖民地_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1136">
   <si>
     <t>英国殖民地</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
   </si>
   <si>
-    <t>倫敦</t>
+    <t>伦敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%A4%A7%E5%B8%9D%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>最大帝國列表</t>
+    <t>最大帝国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%95%8C%E8%88%B0%E9%98%9F</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E6%A6%AE%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>光榮革命</t>
+    <t>光荣革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E7%99%BE%E5%B9%B4%E6%88%98%E4%BA%89</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>法蘭西王國</t>
+    <t>法兰西王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%B8%E6%AC%8A</t>
   </si>
   <si>
-    <t>霸權</t>
+    <t>霸权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E5%B9%B4%E6%88%98%E4%BA%89</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%92%8C%E4%BC%9A_(1919%E5%B9%B4)</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A5%B5%E6%B4%B2</t>
   </si>
   <si>
-    <t>南極洲</t>
+    <t>南极洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E5%A4%A7%E6%B4%B2</t>
@@ -173,43 +173,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>西班牙帝國</t>
+    <t>西班牙帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%B8%8D%E8%90%BD%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>日不落帝國</t>
+    <t>日不落帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民族主義</t>
+    <t>民族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>英國殖民地</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>英聯邦</t>
+    <t>英联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -227,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>貿易</t>
+    <t>贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E6%B0%91</t>
@@ -245,13 +239,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD</t>
   </si>
   <si>
-    <t>商業</t>
+    <t>商业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>語言</t>
+    <t>语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9B%BD</t>
@@ -275,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E9%A0%98</t>
   </si>
   <si>
-    <t>自治領</t>
+    <t>自治领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>議會</t>
+    <t>议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%94%BF%E5%8F%B8</t>
@@ -293,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%9D%A3</t>
   </si>
   <si>
-    <t>總督</t>
+    <t>总督</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -305,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E6%B0%91%E4%B8%BB%E5%88%B6</t>
@@ -317,19 +311,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E4%B8%BB%E6%AC%8A%E7%A7%BB%E4%BA%A4</t>
   </si>
   <si>
-    <t>香港主權移交</t>
+    <t>香港主权移交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%B5%B7%E5%A4%96%E9%A0%98%E5%9C%9F</t>
   </si>
   <si>
-    <t>英國海外領土</t>
+    <t>英国海外领土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%9C%8B%E5%8D%94%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>大英國協王國</t>
+    <t>大英国协王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E4%B8%BD%E8%8E%8E%E7%99%BD%E4%BA%8C%E4%B8%96</t>
@@ -341,19 +335,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%94%E9%82%A6</t>
   </si>
   <si>
-    <t>英联邦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A4%8E%E5%BB%BA%E8%A8%AD</t>
   </si>
   <si>
-    <t>基礎建設</t>
+    <t>基础建设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%BE%8E</t>
@@ -371,7 +362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E8%80%8C%E6%B2%BB%E4%B9%8B</t>
@@ -389,13 +380,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%9C%9F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>本土主義</t>
+    <t>本土主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -413,13 +404,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%A5%E5%B7%B4%E5%B8%83%E9%9F%8B</t>
   </si>
   <si>
-    <t>津巴布韋</t>
+    <t>津巴布韦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E4%BA%9E</t>
   </si>
   <si>
-    <t>肯亞</t>
+    <t>肯亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -431,7 +422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B9%B2%E9%81%94</t>
   </si>
   <si>
-    <t>烏干達</t>
+    <t>乌干达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
@@ -443,43 +434,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>圭亞那</t>
+    <t>圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F</t>
   </si>
   <si>
-    <t>斐濟</t>
+    <t>斐济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%9B%BC%E7%AC%AC</t>
   </si>
   <si>
-    <t>諾曼第</t>
+    <t>诺曼第</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%E4%B8%80%E4%B8%96_(%E8%8B%B1%E6%A0%BC%E8%98%AD)</t>
   </si>
   <si>
-    <t>威廉一世 (英格蘭)</t>
+    <t>威廉一世 (英格兰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>英格蘭</t>
+    <t>英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>歐洲大陸</t>
+    <t>欧洲大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%9B%BC%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>諾曼王朝</t>
+    <t>诺曼王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%8C%B9%E7%8E%8B%E6%9C%9D</t>
@@ -497,37 +488,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>威爾斯</t>
+    <t>威尔斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>蘇格蘭</t>
+    <t>苏格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E4%BE%86</t>
   </si>
   <si>
-    <t>加來</t>
+    <t>加来</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%88%97%E9%A1%9B%E5%B3%B6</t>
   </si>
   <si>
-    <t>不列顛島</t>
+    <t>不列颠岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%E4%B8%83%E4%B8%96_(%E8%8B%B1%E6%A0%BC%E8%98%AD)</t>
   </si>
   <si>
-    <t>亨利七世 (英格蘭)</t>
+    <t>亨利七世 (英格兰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E4%B8%89%E4%B8%96_(%E8%8B%B1%E6%A0%BC%E5%85%B0)</t>
@@ -545,13 +536,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8E%E8%88%AA</t>
   </si>
   <si>
-    <t>導航</t>
+    <t>导航</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%9D%B1%E5%8D%B0%E5%BA%A6%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>英國東印度公司</t>
+    <t>英国东印度公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B4%E8%8C%A8%E8%8C%85%E6%96%AF</t>
@@ -563,19 +554,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%BE%E8%88%B9%E5%A1%A2</t>
   </si>
   <si>
-    <t>乾船塢</t>
+    <t>干船坞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%88%BE%E7%89%B9%C2%B7%E9%9B%B7%E5%88%A9</t>
   </si>
   <si>
-    <t>沃爾特·雷利</t>
+    <t>沃尔特·雷利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%8F%8D%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>維珍尼亞</t>
+    <t>维珍尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -587,13 +578,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%95%B5%E8%89%A6%E9%9A%8A</t>
   </si>
   <si>
-    <t>無敵艦隊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E9%90%B8%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>都鐸王朝</t>
+    <t>都铎王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E6%B2%99%E7%99%BD%E4%B8%80%E4%B8%96_(%E8%8B%B1%E6%A0%BC%E5%85%B0)</t>
@@ -605,13 +593,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>英格蘭王國</t>
+    <t>英格兰王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%E4%B8%80%E4%B8%96_(%E8%8B%B1%E6%A0%BC%E8%98%AD)</t>
   </si>
   <si>
-    <t>詹姆士一世 (英格蘭)</t>
+    <t>詹姆士一世 (英格兰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E6%9D%A1%E7%BA%A6</t>
@@ -623,13 +611,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>維吉尼亞</t>
+    <t>维吉尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E9%8E%AE</t>
   </si>
   <si>
-    <t>詹姆斯鎮</t>
+    <t>詹姆斯镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -641,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅合眾國</t>
+    <t>美利坚合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
@@ -653,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0</t>
   </si>
   <si>
-    <t>牙買加</t>
+    <t>牙买加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E5%A4%9A%E6%96%AF</t>
@@ -665,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴哈馬</t>
+    <t>巴哈马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E8%94%97</t>
@@ -677,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8</t>
   </si>
   <si>
-    <t>奴隸</t>
+    <t>奴隶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%9F%E8%8D%89</t>
@@ -719,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%95%E8%98%AD%E8%A5%BF</t>
   </si>
   <si>
-    <t>新法蘭西</t>
+    <t>新法兰西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -761,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E5%85%8B%E9%8E%AE</t>
   </si>
   <si>
-    <t>約克鎮</t>
+    <t>约克镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%89%E6%A0%BC%E5%85%9A</t>
@@ -785,9 +773,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
   </si>
   <si>
-    <t>亚洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%95%86%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
@@ -809,15 +794,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>古典自由主義</t>
+    <t>古典自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E9%A2%86</t>
   </si>
   <si>
-    <t>自治领</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A2%A0%E5%8F%8A%E7%88%B1%E5%B0%94%E5%85%B0%E8%81%94%E5%90%88%E7%8E%8B%E5%9B%BD</t>
   </si>
   <si>
@@ -827,15 +809,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>奴隸貿易</t>
+    <t>奴隶贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B6</t>
   </si>
   <si>
-    <t>奴隶</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B6%E5%88%B6</t>
   </si>
   <si>
@@ -977,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%BC%B7%E7%93%9C%E5%88%86%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>列強瓜分中國</t>
+    <t>列强瓜分中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E5%A4%A9%E5%9B%BD</t>
@@ -1073,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新帝國主義</t>
+    <t>新帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E6%88%98</t>
@@ -1085,9 +1064,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B8%9D%E5%9B%BD%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>新帝国主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E5%85%AC%E9%87%8C</t>
   </si>
   <si>
@@ -1127,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E6%A2%85%E7%88%BE</t>
   </si>
   <si>
-    <t>伊斯梅爾</t>
+    <t>伊斯梅尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%BC%8A%E5%A3%AB%E8%BF%90%E6%B2%B3</t>
@@ -1247,7 +1223,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>比利時殖民地</t>
+    <t>比利时殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E6%AE%96%E6%B0%91%E5%B8%9D%E5%9B%BD</t>
@@ -1331,7 +1307,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%98%AD%E6%B2%BB%E8%87%AA%E7%94%B1%E9%82%A6</t>
   </si>
   <si>
-    <t>奧蘭治自由邦</t>
+    <t>奥兰治自由邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%88%97%E9%A2%A0%E5%8D%97%E9%9D%9E%E5%85%AC%E5%8F%B8</t>
@@ -1367,9 +1343,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
   </si>
   <si>
-    <t>第一次世界大战</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E6%8A%A5</t>
   </si>
   <si>
@@ -1391,15 +1364,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>紐芬蘭</t>
+    <t>纽芬兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%9D%A3</t>
   </si>
   <si>
-    <t>总督</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%BA%A7%E4%B8%93%E5%91%98</t>
   </si>
   <si>
@@ -1421,7 +1391,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A5%E9%9A%86</t>
   </si>
   <si>
-    <t>喀麥隆</t>
+    <t>喀麦隆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B1%B3%E6%AF%94%E4%BA%9A</t>
@@ -1439,7 +1409,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%9B%A0%E8%98%AD</t>
   </si>
   <si>
-    <t>萊因蘭</t>
+    <t>莱因兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BE%B7</t>
@@ -1451,13 +1421,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>民族主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E6%AD%A7%E8%A6%96</t>
   </si>
   <si>
-    <t>種族歧視</t>
+    <t>种族歧视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E5%B0%94%E8%B5%9B%E6%9D%A1%E7%BA%A6</t>
@@ -1505,9 +1472,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>爱尔兰共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%98</t>
   </si>
   <si>
@@ -1535,13 +1499,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%9F%AF%E5%BB%B7</t>
   </si>
   <si>
-    <t>約翰·柯廷</t>
+    <t>约翰·柯廷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%AE%89%E5%85%A8%E4%BF%9D%E9%9A%9C%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>太平洋安全保障條約</t>
+    <t>太平洋安全保障条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E5%85%B1%E4%BD%93</t>
@@ -1559,7 +1523,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E7%8D%A8%E7%AB%8B</t>
   </si>
   <si>
-    <t>印度獨立</t>
+    <t>印度独立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%9B%BD%E5%A4%A7%E5%85%9A</t>
@@ -1637,9 +1601,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B9%B2%E8%BE%BE</t>
   </si>
   <si>
-    <t>乌干达</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E4%BA%9A</t>
   </si>
   <si>
@@ -1691,7 +1652,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E8%A5%BF%E4%BA%9E%E8%88%87%E5%B0%BC%E4%BA%9E%E8%96%A9%E8%98%AD%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>羅德西亞與尼亞薩蘭聯邦</t>
+    <t>罗德西亚与尼亚萨兰联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%8B%89%E7%BB%B4</t>
@@ -1709,15 +1670,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%85%E5%BE%97%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>南羅得西亞</t>
+    <t>南罗得西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%A5%E5%B7%B4%E5%B8%83%E9%9F%A6</t>
   </si>
   <si>
-    <t>津巴布韦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%B0%E5%BA%A6%E8%81%94%E9%82%A6</t>
   </si>
   <si>
@@ -1727,13 +1685,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0</t>
   </si>
   <si>
-    <t>牙买加</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%95%8C</t>
@@ -1757,7 +1712,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E6%96%AF%E8%A6%AA%E7%8E%8B%E6%9F%A5%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>威爾斯親王查爾斯</t>
+    <t>威尔斯亲王查尔斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1921%E5%B9%B4</t>
@@ -1799,9 +1754,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
   </si>
   <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%88%97%E9%A2%A0%E4%B8%9C%E9%9D%9E%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
@@ -1835,7 +1787,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%97%E9%9D%9E%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>英屬南非公司</t>
+    <t>英属南非公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E8%81%94%E9%82%A6</t>
@@ -1847,7 +1799,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E4%BA%9E%E8%96%A9%E8%98%AD</t>
   </si>
   <si>
-    <t>尼亞薩蘭</t>
+    <t>尼亚萨兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E6%95%99%E5%A3%AB</t>
@@ -1865,13 +1817,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B4%A2%E9%A6%AC%E5%88%A9%E8%98%AD</t>
   </si>
   <si>
-    <t>英屬索馬利蘭</t>
+    <t>英属索马利兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%B8%81_(%E4%B9%9F%E9%96%80)</t>
   </si>
   <si>
-    <t>亞丁 (也門)</t>
+    <t>亚丁 (也门)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C</t>
@@ -1889,7 +1841,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>荷蘭帝國</t>
+    <t>荷兰帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%B0%94%E6%88%98%E4%BA%89</t>
@@ -1967,9 +1919,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9A%E9%82%A3</t>
   </si>
   <si>
-    <t>圭亚那</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
   </si>
   <si>
@@ -2027,13 +1976,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>英屬哥倫比亞</t>
+    <t>英属哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%E7%8E%8B%E5%AD%90%E5%B3%B6</t>
   </si>
   <si>
-    <t>愛德華王子島</t>
+    <t>爱德华王子岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E5%85%B0%E7%BE%A4%E5%B2%9B</t>
@@ -2069,7 +2018,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F</t>
   </si>
   <si>
-    <t>聖克里斯多福</t>
+    <t>圣克里斯多福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%B2%9B</t>
@@ -2099,9 +2048,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
   </si>
   <si>
-    <t>伦敦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E7%BB%B4%E5%B0%94%E4%BA%AC%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
@@ -2135,7 +2081,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%9F%BA%E8%8C%A8%E5%92%8C%E5%B0%BC%E7%BB%B4%E6%96%AF</t>
@@ -2153,7 +2099,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE%E7%89%B9</t>
   </si>
   <si>
-    <t>聖文森特</t>
+    <t>圣文森特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%96%87%E6%A3%AE%E7%89%B9%E5%92%8C%E6%A0%BC%E6%9E%97%E7%BA%B3%E4%B8%81%E6%96%AF</t>
@@ -2189,9 +2135,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC</t>
   </si>
   <si>
-    <t>巴哈马</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%87%8C%E6%96%AF%E5%9D%A6-%E8%BE%BE%E5%BA%93%E5%B0%BC%E4%BA%9A%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
@@ -2201,9 +2144,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
   </si>
   <si>
-    <t>南极洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
   </si>
   <si>
@@ -2255,7 +2195,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>南阿拉伯聯邦</t>
+    <t>南阿拉伯联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%B9%9F%E9%97%A8</t>
@@ -2309,7 +2249,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>英屬緬甸</t>
+    <t>英属缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E7%94%B8%E8%81%94%E9%82%A6%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -2339,55 +2279,55 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8B%B1%E9%B4%89%E7%89%87%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>中英鴉片戰爭</t>
+    <t>中英鸦片战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B8%85%E5%9C%8B</t>
   </si>
   <si>
-    <t>大清國</t>
+    <t>大清国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%AC%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>南京條約</t>
+    <t>南京条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%B3%95%E8%81%AF%E8%BB%8D%E4%B9%8B%E5%BD%B9</t>
   </si>
   <si>
-    <t>英法聯軍之役</t>
+    <t>英法联军之役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8B%B1%E5%8C%97%E4%BA%AC%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>中英北京條約</t>
+    <t>中英北京条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E9%BE%8D</t>
   </si>
   <si>
-    <t>九龍</t>
+    <t>九龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%95%E6%8B%93%E9%A6%99%E6%B8%AF%E7%95%8C%E5%9D%80%E5%B0%88%E6%A2%9D</t>
   </si>
   <si>
-    <t>展拓香港界址專條</t>
+    <t>展拓香港界址专条</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%9D%B1%E7%9C%81</t>
   </si>
   <si>
-    <t>廣東省</t>
+    <t>广东省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B6%E5%AE%89%E7%B8%A3</t>
   </si>
   <si>
-    <t>寶安縣</t>
+    <t>宝安县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%9C%B3%E6%B2%B3</t>
@@ -2405,19 +2345,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A4%9A%E5%88%A9%E4%BA%9E%E5%9F%8E</t>
   </si>
   <si>
-    <t>維多利亞城</t>
+    <t>维多利亚城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%AE%96%E6%B0%91%E5%9C%B0%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>香港殖民地時期</t>
+    <t>香港殖民地时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8B%B1%E8%81%AF%E5%90%88%E8%81%B2%E6%98%8E</t>
   </si>
   <si>
-    <t>中英聯合聲明</t>
+    <t>中英联合声明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%94%BF%E5%BA%9C</t>
@@ -2471,7 +2411,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>馬來聯邦</t>
+    <t>马来联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
@@ -2489,7 +2429,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A9%86%E7%BE%85%E6%B4%B2</t>
   </si>
   <si>
-    <t>北婆羅洲</t>
+    <t>北婆罗洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%82%E6%8B%89%E8%B6%8A</t>
@@ -2513,7 +2453,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>英屬巴勒斯坦</t>
+    <t>英属巴勒斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E5%B0%94</t>
@@ -2525,7 +2465,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8C%97%E5%A9%86%E7%BE%85%E6%B4%B2</t>
   </si>
   <si>
-    <t>英屬北婆羅洲</t>
+    <t>英属北婆罗洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
@@ -2549,7 +2489,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%8C%97%E5%A9%86%E7%BE%85%E6%B4%B2%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>英國北婆羅洲公司</t>
+    <t>英国北婆罗洲公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
@@ -2639,19 +2579,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%9B%BC%E5%9C%9F%E8%80%B3%E5%85%B6%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>奧斯曼土耳其帝國</t>
+    <t>奥斯曼土耳其帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>柏林會議</t>
+    <t>柏林会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -2663,7 +2603,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E7%8E%8B%E4%BD%8D%E7%B9%BC%E6%89%BF%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>西班牙王位繼承戰爭</t>
+    <t>西班牙王位继承战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%BE%B7%E5%8B%92%E6%94%AF%E5%92%8C%E7%BA%A6</t>
@@ -2675,7 +2615,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E5%B4%99</t>
@@ -2705,43 +2645,37 @@
     <t>https://zh.wikipedia.org/wiki/1707%E5%B9%B4%E8%81%AF%E5%90%88%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>1707年聯合法案</t>
+    <t>1707年联合法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A1%9B%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>大不列顛王國</t>
+    <t>大不列颠王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1800%E5%B9%B4%E8%81%AF%E5%90%88%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>1800年聯合法案</t>
+    <t>1800年联合法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭王國</t>
+    <t>爱尔兰王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A1%9B%E5%8F%8A%E6%84%9B%E7%88%BE%E8%98%AD%E8%81%AF%E5%90%88%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>大不列顛及愛爾蘭聯合王國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E8%87%AA%E7%94%B1%E9%82%A6</t>
   </si>
   <si>
-    <t>愛爾蘭自由邦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>北愛爾蘭</t>
+    <t>北爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
@@ -2753,7 +2687,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>澳大利亞聯邦</t>
+    <t>澳大利亚联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8D%97%E5%A8%81%E5%B0%94%E5%A3%AB</t>
@@ -2777,7 +2711,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E9%A0%93%E7%81%A3</t>
   </si>
   <si>
-    <t>摩頓灣</t>
+    <t>摩顿湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E8%AE%AE%E4%BC%9A</t>
@@ -2789,13 +2723,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>南澳大利亞</t>
+    <t>南澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%96%AF%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>塔斯馬尼亞</t>
+    <t>塔斯马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -2831,9 +2765,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%B5%8E</t>
   </si>
   <si>
-    <t>斐济</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%8B%E9%95%BF</t>
   </si>
   <si>
@@ -2849,7 +2780,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B1%AC%E6%96%B0%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>德屬新幾內亞</t>
+    <t>德属新几内亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E5%88%A9%E4%BA%BA</t>
@@ -2897,9 +2828,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD</t>
   </si>
   <si>
-    <t>美利坚合众国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%8B%89%E7%93%A6%E5%B7%9E</t>
   </si>
   <si>
@@ -2921,13 +2849,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%8F%8D%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>維珍尼亞州</t>
+    <t>维珍尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E7%8F%8D%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維珍尼亞州</t>
+    <t>西维珍尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E</t>
@@ -3071,7 +2999,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>百年戰爭</t>
+    <t>百年战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E9%87%8C%E6%88%88%E5%85%B0%E5%B2%9B</t>
@@ -3113,7 +3041,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%A5%A7%E5%B0%BC%E4%BA%9E%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>愛奧尼亞群島</t>
+    <t>爱奥尼亚群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%AF%BA%E5%8D%A1%E5%B2%9B</t>
@@ -3131,9 +3059,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
   </si>
   <si>
@@ -3179,7 +3104,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
   </si>
   <si>
-    <t>賴索托</t>
+    <t>赖索托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E9%87%8C%E8%A5%BF%E6%96%AF</t>
@@ -3191,13 +3116,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>尚比亞</t>
+    <t>尚比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81</t>
@@ -3209,63 +3134,60 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E8%98%AD</t>
   </si>
   <si>
-    <t>索馬利蘭</t>
+    <t>索马利兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>南蘇丹</t>
+    <t>南苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>英聯邦王國</t>
+    <t>英联邦王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94</t>
   </si>
   <si>
-    <t>安地卡及巴布達</t>
+    <t>安地卡及巴布达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE%E5%8F%8A%E6%A0%BC%E7%91%9E%E9%82%A3%E4%B8%81</t>
   </si>
   <si>
-    <t>聖文森及格瑞那丁</t>
+    <t>圣文森及格瑞那丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%91%9E%E9%82%A3%E9%81%94</t>
   </si>
   <si>
-    <t>格瑞那達</t>
+    <t>格瑞那达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%96%80%E6%B0%91%E4%B8%BB%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>也門民主人民共和國</t>
+    <t>也门民主人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%96%80%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>也門共和國</t>
+    <t>也门共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E5%9F%83</t>
   </si>
   <si>
@@ -3275,51 +3197,42 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%81%AF%E5%90%88</t>
   </si>
   <si>
-    <t>自由聯合</t>
+    <t>自由联合</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%85%8B%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>庫克群島</t>
+    <t>库克群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%9C%B0%E5%A4%AB</t>
   </si>
   <si>
-    <t>馬爾地夫</t>
+    <t>马尔地夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9C%96</t>
   </si>
   <si>
-    <t>瓦努阿圖</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%86%A0%E5%B1%9E%E5%9C%B0</t>
   </si>
   <si>
@@ -3335,27 +3248,21 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>澤西</t>
+    <t>泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>曼島</t>
+    <t>曼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E6%B5%B7%E5%A4%96%E9%A2%86%E5%9C%9F</t>
   </si>
   <si>
-    <t>英国海外领土</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E5%87%AF%E6%81%A9%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
@@ -3383,15 +3290,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬印度洋領地</t>
+    <t>英属印度洋领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維爾京群島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B5%AB%E5%8B%92%E6%8B%BF%E3%80%81%E9%98%BF%E6%A3%AE%E6%9D%BE%E5%92%8C%E7%89%B9%E9%87%8C%E6%96%AF%E5%9D%A6-%E8%BE%BE%E5%BA%93%E5%B0%BC%E4%BA%9A</t>
   </si>
   <si>
@@ -3401,7 +3305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B5%AB%E5%8B%92%E6%8B%BF</t>
   </si>
   <si>
-    <t>聖赫勒拿</t>
+    <t>圣赫勒拿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%87%8C%E6%96%AF%E5%9D%A6-%E8%BE%BE%E5%BA%93%E5%B0%BC%E4%BA%9A</t>
@@ -3413,13 +3317,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E8%88%87%E5%87%B1%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>特克斯與凱科斯群島</t>
+    <t>特克斯与凯科斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞克羅提利與德凱利亞</t>
+    <t>亚克罗提利与德凯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
@@ -3497,7 +3401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>丹麥殖民地</t>
+    <t>丹麦殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -4759,7 +4663,7 @@
         <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
         <v>48</v>
@@ -4785,10 +4689,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>5</v>
@@ -4814,10 +4718,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>20</v>
@@ -4843,10 +4747,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>9</v>
@@ -4872,10 +4776,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>12</v>
@@ -4901,10 +4805,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>6</v>
@@ -4930,10 +4834,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>6</v>
@@ -4959,10 +4863,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>9</v>
@@ -4988,10 +4892,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -5017,10 +4921,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -5046,10 +4950,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>82</v>
@@ -5075,10 +4979,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>8</v>
@@ -5104,10 +5008,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>114</v>
@@ -5133,10 +5037,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -5162,10 +5066,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>4</v>
@@ -5191,10 +5095,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -5220,10 +5124,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -5249,10 +5153,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -5278,10 +5182,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>3</v>
@@ -5307,10 +5211,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -5336,10 +5240,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -5365,10 +5269,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -5394,10 +5298,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -5423,10 +5327,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -5452,10 +5356,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -5481,10 +5385,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="G56" t="n">
         <v>8</v>
@@ -5510,10 +5414,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -5539,10 +5443,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -5568,10 +5472,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G59" t="n">
         <v>33</v>
@@ -5597,10 +5501,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -5626,10 +5530,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -5655,10 +5559,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -5684,10 +5588,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -5713,10 +5617,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -5742,10 +5646,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G65" t="n">
         <v>54</v>
@@ -5771,10 +5675,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G66" t="n">
         <v>8</v>
@@ -5800,10 +5704,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -5829,10 +5733,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -5858,10 +5762,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -5887,10 +5791,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -5916,10 +5820,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G71" t="n">
         <v>9</v>
@@ -5945,10 +5849,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5974,10 +5878,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -6003,10 +5907,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -6032,10 +5936,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -6061,10 +5965,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G76" t="n">
         <v>22</v>
@@ -6090,10 +5994,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -6119,10 +6023,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -6148,10 +6052,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -6177,10 +6081,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -6206,10 +6110,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G81" t="n">
         <v>20</v>
@@ -6235,10 +6139,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -6264,10 +6168,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -6293,10 +6197,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -6322,10 +6226,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -6351,10 +6255,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -6380,10 +6284,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -6409,10 +6313,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -6438,10 +6342,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -6467,10 +6371,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -6496,10 +6400,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -6525,10 +6429,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -6554,10 +6458,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -6583,10 +6487,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G94" t="n">
         <v>4</v>
@@ -6612,10 +6516,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G95" t="n">
         <v>19</v>
@@ -6641,10 +6545,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -6670,10 +6574,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6699,10 +6603,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6728,10 +6632,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -6757,10 +6661,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -6786,10 +6690,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -6815,10 +6719,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6844,10 +6748,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6873,10 +6777,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>14</v>
@@ -6902,10 +6806,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6931,10 +6835,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>4</v>
@@ -6960,10 +6864,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6989,10 +6893,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>4</v>
@@ -7018,10 +6922,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -7047,10 +6951,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -7076,10 +6980,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -7105,10 +7009,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -7134,10 +7038,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -7163,10 +7067,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -7192,10 +7096,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -7221,10 +7125,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -7250,10 +7154,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>4</v>
@@ -7279,10 +7183,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -7308,10 +7212,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>26</v>
@@ -7337,10 +7241,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>8</v>
@@ -7366,10 +7270,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -7395,10 +7299,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>5</v>
@@ -7424,10 +7328,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>4</v>
@@ -7453,10 +7357,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7482,10 +7386,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7511,10 +7415,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7540,10 +7444,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7569,10 +7473,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7598,10 +7502,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="G129" t="n">
         <v>9</v>
@@ -7627,10 +7531,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -7656,10 +7560,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7685,10 +7589,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7714,10 +7618,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7743,10 +7647,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>84</v>
       </c>
       <c r="G134" t="n">
         <v>31</v>
@@ -7772,10 +7676,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7801,10 +7705,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7830,10 +7734,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="G137" t="n">
         <v>4</v>
@@ -7859,10 +7763,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -7888,10 +7792,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7917,10 +7821,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7946,10 +7850,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7975,10 +7879,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F142" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G142" t="n">
         <v>3</v>
@@ -8004,10 +7908,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -8033,10 +7937,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -8062,10 +7966,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -8091,10 +7995,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -8120,10 +8024,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -8149,10 +8053,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -8178,10 +8082,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F149" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -8207,10 +8111,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F150" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G150" t="n">
         <v>10</v>
@@ -8236,10 +8140,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -8265,10 +8169,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -8294,10 +8198,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G153" t="n">
         <v>6</v>
@@ -8323,10 +8227,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G154" t="n">
         <v>5</v>
@@ -8352,10 +8256,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G155" t="n">
         <v>8</v>
@@ -8381,10 +8285,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G156" t="n">
         <v>9</v>
@@ -8410,10 +8314,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -8439,10 +8343,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G158" t="n">
         <v>18</v>
@@ -8468,10 +8372,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -8497,10 +8401,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -8526,10 +8430,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -8555,10 +8459,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G162" t="n">
         <v>24</v>
@@ -8584,10 +8488,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G163" t="n">
         <v>6</v>
@@ -8613,10 +8517,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8642,10 +8546,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8671,10 +8575,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G166" t="n">
         <v>20</v>
@@ -8700,10 +8604,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G167" t="n">
         <v>17</v>
@@ -8729,10 +8633,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8758,10 +8662,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8787,10 +8691,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8816,10 +8720,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8845,10 +8749,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8874,10 +8778,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8903,10 +8807,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8932,10 +8836,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G175" t="n">
         <v>16</v>
@@ -8961,10 +8865,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -8990,10 +8894,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -9019,10 +8923,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -9048,10 +8952,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -9077,10 +8981,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -9106,10 +9010,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G181" t="n">
         <v>12</v>
@@ -9135,10 +9039,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="G182" t="n">
         <v>9</v>
@@ -9164,10 +9068,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G183" t="n">
         <v>3</v>
@@ -9193,10 +9097,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -9222,10 +9126,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -9251,10 +9155,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G186" t="n">
         <v>9</v>
@@ -9280,10 +9184,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -9309,10 +9213,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G188" t="n">
         <v>15</v>
@@ -9338,10 +9242,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9367,10 +9271,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>4</v>
@@ -9396,10 +9300,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9425,10 +9329,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>11</v>
@@ -9454,10 +9358,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -9483,10 +9387,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9512,10 +9416,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>4</v>
@@ -9541,10 +9445,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9570,10 +9474,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F197" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G197" t="n">
         <v>6</v>
@@ -9599,10 +9503,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9628,10 +9532,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9657,10 +9561,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9686,10 +9590,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9715,10 +9619,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9744,10 +9648,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9773,10 +9677,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G204" t="n">
         <v>5</v>
@@ -9802,10 +9706,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9831,10 +9735,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9860,10 +9764,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G207" t="n">
         <v>11</v>
@@ -9889,10 +9793,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G208" t="n">
         <v>3</v>
@@ -9918,10 +9822,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9947,10 +9851,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G210" t="n">
         <v>4</v>
@@ -9976,10 +9880,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G211" t="n">
         <v>4</v>
@@ -10005,10 +9909,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G212" t="n">
         <v>3</v>
@@ -10034,10 +9938,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -10063,10 +9967,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -10092,10 +9996,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -10121,10 +10025,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -10150,10 +10054,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -10179,10 +10083,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -10208,10 +10112,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -10237,10 +10141,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G220" t="n">
         <v>3</v>
@@ -10266,10 +10170,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -10295,10 +10199,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F222" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G222" t="n">
         <v>10</v>
@@ -10324,10 +10228,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F223" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -10353,10 +10257,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F224" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G224" t="n">
         <v>22</v>
@@ -10382,10 +10286,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F225" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G225" t="n">
         <v>4</v>
@@ -10411,10 +10315,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F226" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -10440,10 +10344,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F227" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10469,10 +10373,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F228" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10498,10 +10402,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F229" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G229" t="n">
         <v>6</v>
@@ -10527,10 +10431,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F230" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -10556,10 +10460,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F231" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G231" t="n">
         <v>5</v>
@@ -10585,10 +10489,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F232" t="s">
-        <v>450</v>
+        <v>40</v>
       </c>
       <c r="G232" t="n">
         <v>3</v>
@@ -10614,10 +10518,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F233" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10643,10 +10547,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="F234" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="G234" t="n">
         <v>7</v>
@@ -10672,10 +10576,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="F235" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G235" t="n">
         <v>24</v>
@@ -10701,10 +10605,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F236" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="G236" t="n">
         <v>3</v>
@@ -10730,10 +10634,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F237" t="s">
-        <v>460</v>
+        <v>90</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -10759,10 +10663,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F238" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -10788,10 +10692,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="F239" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="G239" t="n">
         <v>6</v>
@@ -10817,10 +10721,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F240" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -10846,10 +10750,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F241" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10875,10 +10779,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="F242" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="G242" t="n">
         <v>3</v>
@@ -10904,10 +10808,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F243" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="G243" t="n">
         <v>8</v>
@@ -10933,10 +10837,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F244" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10962,10 +10866,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="F245" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10991,10 +10895,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="F246" t="s">
-        <v>478</v>
+        <v>58</v>
       </c>
       <c r="G246" t="n">
         <v>4</v>
@@ -11020,10 +10924,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="F247" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -11049,10 +10953,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="F248" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -11078,10 +10982,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="F249" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="G249" t="n">
         <v>6</v>
@@ -11107,10 +11011,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="F250" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -11136,10 +11040,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="F251" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -11165,10 +11069,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="F252" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -11194,10 +11098,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="F253" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -11223,10 +11127,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="F254" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -11252,10 +11156,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="F255" t="s">
-        <v>496</v>
+        <v>123</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11310,10 +11214,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="F257" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="G257" t="n">
         <v>5</v>
@@ -11339,10 +11243,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="F258" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11368,10 +11272,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11397,10 +11301,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="F260" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="G260" t="n">
         <v>17</v>
@@ -11426,10 +11330,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="F261" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11455,10 +11359,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F262" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11484,10 +11388,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="F263" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11513,10 +11417,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F264" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G264" t="n">
         <v>8</v>
@@ -11542,10 +11446,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F265" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11571,10 +11475,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="F266" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="G266" t="n">
         <v>4</v>
@@ -11600,10 +11504,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="F267" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11629,10 +11533,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="F268" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="G268" t="n">
         <v>5</v>
@@ -11658,10 +11562,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="F269" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11687,10 +11591,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="F270" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11716,10 +11620,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="F271" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="G271" t="n">
         <v>3</v>
@@ -11745,10 +11649,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="F272" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -11774,10 +11678,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F273" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -11803,10 +11707,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="F274" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11832,10 +11736,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="F275" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11861,10 +11765,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="F276" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="G276" t="n">
         <v>3</v>
@@ -11890,10 +11794,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="F277" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G277" t="n">
         <v>4</v>
@@ -11919,10 +11823,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="F278" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="G278" t="n">
         <v>6</v>
@@ -11948,10 +11852,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="F279" t="s">
-        <v>540</v>
+        <v>135</v>
       </c>
       <c r="G279" t="n">
         <v>4</v>
@@ -11977,10 +11881,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="F280" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="G280" t="n">
         <v>6</v>
@@ -12006,10 +11910,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="F281" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="G281" t="n">
         <v>3</v>
@@ -12035,10 +11939,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="F282" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="G282" t="n">
         <v>3</v>
@@ -12064,10 +11968,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="F283" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="G283" t="n">
         <v>3</v>
@@ -12093,10 +11997,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="F284" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -12122,10 +12026,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="F285" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="G285" t="n">
         <v>4</v>
@@ -12151,10 +12055,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="F286" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -12180,10 +12084,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="F287" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -12209,10 +12113,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="F288" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -12238,10 +12142,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="F289" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="G289" t="n">
         <v>3</v>
@@ -12267,10 +12171,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="F290" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -12296,10 +12200,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="F291" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="G291" t="n">
         <v>4</v>
@@ -12325,10 +12229,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="F292" t="s">
-        <v>566</v>
+        <v>129</v>
       </c>
       <c r="G292" t="n">
         <v>3</v>
@@ -12354,10 +12258,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="F293" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12383,10 +12287,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="F294" t="s">
-        <v>570</v>
+        <v>208</v>
       </c>
       <c r="G294" t="n">
         <v>6</v>
@@ -12412,10 +12316,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="F295" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="G295" t="n">
         <v>2</v>
@@ -12441,10 +12345,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="F296" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="G296" t="n">
         <v>3</v>
@@ -12470,10 +12374,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="F297" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="G297" t="n">
         <v>14</v>
@@ -12499,10 +12403,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="F298" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="G298" t="n">
         <v>5</v>
@@ -12528,10 +12432,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="F299" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12557,10 +12461,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="F300" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="G300" t="n">
         <v>7</v>
@@ -12586,10 +12490,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="F301" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12615,10 +12519,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="F302" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="G302" t="n">
         <v>5</v>
@@ -12644,10 +12548,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="F303" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -12673,10 +12577,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="F304" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="G304" t="n">
         <v>4</v>
@@ -12702,10 +12606,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="F305" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="G305" t="n">
         <v>3</v>
@@ -12731,10 +12635,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="F306" t="s">
-        <v>594</v>
+        <v>458</v>
       </c>
       <c r="G306" t="n">
         <v>4</v>
@@ -12760,10 +12664,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="F307" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12789,10 +12693,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="F308" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="G308" t="n">
         <v>2</v>
@@ -12818,10 +12722,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="F309" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -12847,10 +12751,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="F310" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -12876,10 +12780,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="F311" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12905,10 +12809,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="F312" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="G312" t="n">
         <v>4</v>
@@ -12934,10 +12838,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="F313" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -12963,10 +12867,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="F314" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="G314" t="n">
         <v>3</v>
@@ -12992,10 +12896,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="F315" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="G315" t="n">
         <v>4</v>
@@ -13021,10 +12925,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="F316" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="G316" t="n">
         <v>2</v>
@@ -13050,10 +12954,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="F317" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -13079,10 +12983,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="F318" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -13108,10 +13012,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="F319" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="G319" t="n">
         <v>2</v>
@@ -13137,10 +13041,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="F320" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -13166,10 +13070,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="F321" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -13195,10 +13099,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="F322" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="G322" t="n">
         <v>7</v>
@@ -13224,10 +13128,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="F323" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -13253,10 +13157,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="F324" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13282,10 +13186,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="F325" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="G325" t="n">
         <v>3</v>
@@ -13311,10 +13215,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="F326" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13340,10 +13244,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="F327" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13369,10 +13273,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="F328" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="G328" t="n">
         <v>3</v>
@@ -13398,10 +13302,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="F329" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -13427,10 +13331,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="F330" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13456,10 +13360,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="F331" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="G331" t="n">
         <v>4</v>
@@ -13485,10 +13389,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="F332" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -13514,10 +13418,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="F333" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="G333" t="n">
         <v>5</v>
@@ -13543,10 +13447,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="F334" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="G334" t="n">
         <v>2</v>
@@ -13572,10 +13476,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="F335" t="s">
-        <v>650</v>
+        <v>139</v>
       </c>
       <c r="G335" t="n">
         <v>4</v>
@@ -13601,10 +13505,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>651</v>
+        <v>634</v>
       </c>
       <c r="F336" t="s">
-        <v>652</v>
+        <v>635</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13630,10 +13534,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>653</v>
+        <v>636</v>
       </c>
       <c r="F337" t="s">
-        <v>654</v>
+        <v>637</v>
       </c>
       <c r="G337" t="n">
         <v>2</v>
@@ -13659,10 +13563,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="F338" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13688,10 +13592,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="F339" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13717,10 +13621,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>659</v>
+        <v>642</v>
       </c>
       <c r="F340" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13746,10 +13650,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="F341" t="s">
-        <v>662</v>
+        <v>645</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13775,10 +13679,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F342" t="s">
-        <v>664</v>
+        <v>647</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13804,10 +13708,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="F343" t="s">
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13833,10 +13737,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="F344" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="G344" t="n">
         <v>3</v>
@@ -13862,10 +13766,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="F345" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13891,10 +13795,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="F346" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13920,10 +13824,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="F347" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="G347" t="n">
         <v>3</v>
@@ -13949,10 +13853,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="F348" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="G348" t="n">
         <v>2</v>
@@ -13978,10 +13882,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="F349" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -14007,10 +13911,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="F350" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -14036,10 +13940,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="F351" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -14065,10 +13969,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="F352" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="G352" t="n">
         <v>6</v>
@@ -14094,10 +13998,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="F353" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -14123,10 +14027,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="F354" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -14152,10 +14056,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="F355" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -14181,10 +14085,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="F356" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14210,10 +14114,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="F357" t="s">
-        <v>694</v>
+        <v>6</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -14239,10 +14143,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>695</v>
+        <v>677</v>
       </c>
       <c r="F358" t="s">
-        <v>696</v>
+        <v>678</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14268,10 +14172,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>697</v>
+        <v>679</v>
       </c>
       <c r="F359" t="s">
-        <v>698</v>
+        <v>680</v>
       </c>
       <c r="G359" t="n">
         <v>2</v>
@@ -14297,10 +14201,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>699</v>
+        <v>681</v>
       </c>
       <c r="F360" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="G360" t="n">
         <v>2</v>
@@ -14326,10 +14230,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="F361" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="G361" t="n">
         <v>2</v>
@@ -14355,10 +14259,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="F362" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="G362" t="n">
         <v>2</v>
@@ -14384,10 +14288,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="F363" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14413,10 +14317,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="F364" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="G364" t="n">
         <v>2</v>
@@ -14442,10 +14346,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="F365" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="G365" t="n">
         <v>3</v>
@@ -14471,10 +14375,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="F366" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="G366" t="n">
         <v>2</v>
@@ -14500,10 +14404,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="F367" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14529,10 +14433,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="F368" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14558,10 +14462,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="F369" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -14587,10 +14491,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
       <c r="F370" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14616,10 +14520,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="F371" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14645,10 +14549,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="F372" t="s">
-        <v>724</v>
+        <v>212</v>
       </c>
       <c r="G372" t="n">
         <v>3</v>
@@ -14674,10 +14578,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>725</v>
+        <v>706</v>
       </c>
       <c r="F373" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14703,10 +14607,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F374" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14732,10 +14636,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
       <c r="F375" t="s">
-        <v>728</v>
+        <v>46</v>
       </c>
       <c r="G375" t="n">
         <v>6</v>
@@ -14761,10 +14665,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="F376" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="G376" t="n">
         <v>3</v>
@@ -14790,10 +14694,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="F377" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14819,10 +14723,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="F378" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14848,10 +14752,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="F379" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="G379" t="n">
         <v>2</v>
@@ -14877,10 +14781,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="F380" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="G380" t="n">
         <v>2</v>
@@ -14906,10 +14810,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
       <c r="F381" t="s">
-        <v>740</v>
+        <v>720</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14935,10 +14839,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="F382" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14964,10 +14868,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
       <c r="F383" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="G383" t="n">
         <v>2</v>
@@ -14993,10 +14897,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
       <c r="F384" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="G384" t="n">
         <v>6</v>
@@ -15022,10 +14926,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="F385" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -15051,10 +14955,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
       <c r="F386" t="s">
-        <v>748</v>
+        <v>728</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -15080,10 +14984,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="F387" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="G387" t="n">
         <v>3</v>
@@ -15109,10 +15013,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>751</v>
+        <v>731</v>
       </c>
       <c r="F388" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
       <c r="G388" t="n">
         <v>4</v>
@@ -15138,10 +15042,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="F389" t="s">
-        <v>754</v>
+        <v>734</v>
       </c>
       <c r="G389" t="n">
         <v>2</v>
@@ -15167,10 +15071,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="F390" t="s">
-        <v>756</v>
+        <v>736</v>
       </c>
       <c r="G390" t="n">
         <v>15</v>
@@ -15196,10 +15100,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>757</v>
+        <v>737</v>
       </c>
       <c r="F391" t="s">
-        <v>758</v>
+        <v>738</v>
       </c>
       <c r="G391" t="n">
         <v>6</v>
@@ -15225,10 +15129,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>759</v>
+        <v>739</v>
       </c>
       <c r="F392" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="G392" t="n">
         <v>3</v>
@@ -15254,10 +15158,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
       <c r="F393" t="s">
-        <v>762</v>
+        <v>742</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15283,10 +15187,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>763</v>
+        <v>743</v>
       </c>
       <c r="F394" t="s">
-        <v>764</v>
+        <v>744</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15312,10 +15216,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>765</v>
+        <v>745</v>
       </c>
       <c r="F395" t="s">
-        <v>766</v>
+        <v>746</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15341,10 +15245,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>767</v>
+        <v>747</v>
       </c>
       <c r="F396" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15370,10 +15274,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F397" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15399,10 +15303,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="F398" t="s">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15428,10 +15332,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="F399" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15457,10 +15361,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>773</v>
+        <v>753</v>
       </c>
       <c r="F400" t="s">
-        <v>774</v>
+        <v>754</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15486,10 +15390,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="F401" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
       <c r="G401" t="n">
         <v>2</v>
@@ -15515,10 +15419,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="F402" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15544,10 +15448,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>779</v>
+        <v>759</v>
       </c>
       <c r="F403" t="s">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15573,10 +15477,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>781</v>
+        <v>761</v>
       </c>
       <c r="F404" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15602,10 +15506,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>783</v>
+        <v>763</v>
       </c>
       <c r="F405" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15631,10 +15535,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>785</v>
+        <v>765</v>
       </c>
       <c r="F406" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15660,10 +15564,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="F407" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15689,10 +15593,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="F408" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15718,10 +15622,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>791</v>
+        <v>771</v>
       </c>
       <c r="F409" t="s">
-        <v>792</v>
+        <v>772</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15747,10 +15651,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>783</v>
+        <v>763</v>
       </c>
       <c r="F410" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15776,10 +15680,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="F411" t="s">
-        <v>794</v>
+        <v>774</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15805,10 +15709,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="F412" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15834,10 +15738,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="F413" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15863,10 +15767,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
       <c r="F414" t="s">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15892,10 +15796,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="F415" t="s">
-        <v>802</v>
+        <v>782</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15921,10 +15825,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>803</v>
+        <v>783</v>
       </c>
       <c r="F416" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="G416" t="n">
         <v>2</v>
@@ -15950,10 +15854,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="F417" t="s">
-        <v>806</v>
+        <v>786</v>
       </c>
       <c r="G417" t="n">
         <v>2</v>
@@ -15979,10 +15883,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>807</v>
+        <v>787</v>
       </c>
       <c r="F418" t="s">
-        <v>808</v>
+        <v>788</v>
       </c>
       <c r="G418" t="n">
         <v>2</v>
@@ -16008,10 +15912,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
       <c r="F419" t="s">
-        <v>810</v>
+        <v>790</v>
       </c>
       <c r="G419" t="n">
         <v>4</v>
@@ -16037,10 +15941,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>811</v>
+        <v>791</v>
       </c>
       <c r="F420" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="G420" t="n">
         <v>2</v>
@@ -16066,10 +15970,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>813</v>
+        <v>793</v>
       </c>
       <c r="F421" t="s">
-        <v>814</v>
+        <v>794</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -16095,10 +15999,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="F422" t="s">
-        <v>816</v>
+        <v>796</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -16124,10 +16028,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>817</v>
+        <v>797</v>
       </c>
       <c r="F423" t="s">
-        <v>818</v>
+        <v>798</v>
       </c>
       <c r="G423" t="n">
         <v>2</v>
@@ -16153,10 +16057,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
       <c r="F424" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="G424" t="n">
         <v>7</v>
@@ -16182,10 +16086,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="F425" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16211,10 +16115,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="F426" t="s">
-        <v>824</v>
+        <v>804</v>
       </c>
       <c r="G426" t="n">
         <v>3</v>
@@ -16240,10 +16144,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="F427" t="s">
-        <v>826</v>
+        <v>806</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16269,10 +16173,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>827</v>
+        <v>807</v>
       </c>
       <c r="F428" t="s">
-        <v>828</v>
+        <v>808</v>
       </c>
       <c r="G428" t="n">
         <v>3</v>
@@ -16298,10 +16202,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>829</v>
+        <v>809</v>
       </c>
       <c r="F429" t="s">
-        <v>830</v>
+        <v>810</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16327,10 +16231,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>831</v>
+        <v>811</v>
       </c>
       <c r="F430" t="s">
-        <v>832</v>
+        <v>812</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16356,10 +16260,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>833</v>
+        <v>813</v>
       </c>
       <c r="F431" t="s">
-        <v>834</v>
+        <v>814</v>
       </c>
       <c r="G431" t="n">
         <v>5</v>
@@ -16385,10 +16289,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>835</v>
+        <v>815</v>
       </c>
       <c r="F432" t="s">
-        <v>836</v>
+        <v>816</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16414,10 +16318,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>837</v>
+        <v>817</v>
       </c>
       <c r="F433" t="s">
-        <v>838</v>
+        <v>818</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16443,10 +16347,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>839</v>
+        <v>819</v>
       </c>
       <c r="F434" t="s">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="G434" t="n">
         <v>2</v>
@@ -16472,10 +16376,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>841</v>
+        <v>821</v>
       </c>
       <c r="F435" t="s">
-        <v>842</v>
+        <v>822</v>
       </c>
       <c r="G435" t="n">
         <v>5</v>
@@ -16501,10 +16405,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>843</v>
+        <v>823</v>
       </c>
       <c r="F436" t="s">
-        <v>844</v>
+        <v>824</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16530,10 +16434,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>845</v>
+        <v>825</v>
       </c>
       <c r="F437" t="s">
-        <v>846</v>
+        <v>826</v>
       </c>
       <c r="G437" t="n">
         <v>8</v>
@@ -16559,10 +16463,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="F438" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="G438" t="n">
         <v>4</v>
@@ -16588,10 +16492,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="F439" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="G439" t="n">
         <v>4</v>
@@ -16617,10 +16521,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>851</v>
+        <v>831</v>
       </c>
       <c r="F440" t="s">
-        <v>852</v>
+        <v>832</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16646,10 +16550,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>853</v>
+        <v>833</v>
       </c>
       <c r="F441" t="s">
-        <v>854</v>
+        <v>834</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16675,10 +16579,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>855</v>
+        <v>835</v>
       </c>
       <c r="F442" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="G442" t="n">
         <v>2</v>
@@ -16704,10 +16608,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="F443" t="s">
-        <v>858</v>
+        <v>838</v>
       </c>
       <c r="G443" t="n">
         <v>2</v>
@@ -16733,10 +16637,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>859</v>
+        <v>839</v>
       </c>
       <c r="F444" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="G444" t="n">
         <v>2</v>
@@ -16762,10 +16666,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>861</v>
+        <v>841</v>
       </c>
       <c r="F445" t="s">
-        <v>862</v>
+        <v>842</v>
       </c>
       <c r="G445" t="n">
         <v>3</v>
@@ -16791,10 +16695,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
       <c r="F446" t="s">
-        <v>864</v>
+        <v>844</v>
       </c>
       <c r="G446" t="n">
         <v>7</v>
@@ -16820,10 +16724,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>865</v>
+        <v>845</v>
       </c>
       <c r="F447" t="s">
-        <v>866</v>
+        <v>846</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16849,10 +16753,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>867</v>
+        <v>847</v>
       </c>
       <c r="F448" t="s">
-        <v>868</v>
+        <v>848</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16878,10 +16782,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="F449" t="s">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16907,10 +16811,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>871</v>
+        <v>851</v>
       </c>
       <c r="F450" t="s">
-        <v>872</v>
+        <v>852</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16936,10 +16840,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>873</v>
+        <v>853</v>
       </c>
       <c r="F451" t="s">
-        <v>874</v>
+        <v>854</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16965,10 +16869,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>875</v>
+        <v>855</v>
       </c>
       <c r="F452" t="s">
-        <v>876</v>
+        <v>856</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16994,10 +16898,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>877</v>
+        <v>857</v>
       </c>
       <c r="F453" t="s">
-        <v>878</v>
+        <v>858</v>
       </c>
       <c r="G453" t="n">
         <v>2</v>
@@ -17023,10 +16927,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="F454" t="s">
-        <v>880</v>
+        <v>860</v>
       </c>
       <c r="G454" t="n">
         <v>3</v>
@@ -17052,10 +16956,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>881</v>
+        <v>861</v>
       </c>
       <c r="F455" t="s">
-        <v>882</v>
+        <v>862</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17081,10 +16985,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>883</v>
+        <v>863</v>
       </c>
       <c r="F456" t="s">
-        <v>884</v>
+        <v>864</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17110,10 +17014,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>885</v>
+        <v>865</v>
       </c>
       <c r="F457" t="s">
-        <v>886</v>
+        <v>866</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -17139,10 +17043,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>887</v>
+        <v>867</v>
       </c>
       <c r="F458" t="s">
-        <v>888</v>
+        <v>868</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17168,10 +17072,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>889</v>
+        <v>869</v>
       </c>
       <c r="F459" t="s">
-        <v>890</v>
+        <v>870</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17197,10 +17101,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
       <c r="F460" t="s">
-        <v>892</v>
+        <v>872</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17226,10 +17130,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>893</v>
+        <v>873</v>
       </c>
       <c r="F461" t="s">
-        <v>894</v>
+        <v>874</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17255,10 +17159,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>895</v>
+        <v>875</v>
       </c>
       <c r="F462" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17284,10 +17188,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
       <c r="F463" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17313,10 +17217,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>899</v>
+        <v>879</v>
       </c>
       <c r="F464" t="s">
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17342,10 +17246,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>901</v>
+        <v>881</v>
       </c>
       <c r="F465" t="s">
-        <v>902</v>
+        <v>882</v>
       </c>
       <c r="G465" t="n">
         <v>2</v>
@@ -17371,10 +17275,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>903</v>
+        <v>883</v>
       </c>
       <c r="F466" t="s">
-        <v>904</v>
+        <v>262</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17400,10 +17304,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>905</v>
+        <v>884</v>
       </c>
       <c r="F467" t="s">
-        <v>906</v>
+        <v>483</v>
       </c>
       <c r="G467" t="n">
         <v>2</v>
@@ -17429,10 +17333,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F468" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G468" t="n">
         <v>2</v>
@@ -17458,10 +17362,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>907</v>
+        <v>885</v>
       </c>
       <c r="F469" t="s">
-        <v>908</v>
+        <v>886</v>
       </c>
       <c r="G469" t="n">
         <v>3</v>
@@ -17487,10 +17391,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>909</v>
+        <v>887</v>
       </c>
       <c r="F470" t="s">
-        <v>910</v>
+        <v>888</v>
       </c>
       <c r="G470" t="n">
         <v>8</v>
@@ -17516,10 +17420,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>911</v>
+        <v>889</v>
       </c>
       <c r="F471" t="s">
-        <v>912</v>
+        <v>890</v>
       </c>
       <c r="G471" t="n">
         <v>2</v>
@@ -17545,10 +17449,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>913</v>
+        <v>891</v>
       </c>
       <c r="F472" t="s">
-        <v>914</v>
+        <v>892</v>
       </c>
       <c r="G472" t="n">
         <v>6</v>
@@ -17574,10 +17478,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>915</v>
+        <v>893</v>
       </c>
       <c r="F473" t="s">
-        <v>916</v>
+        <v>894</v>
       </c>
       <c r="G473" t="n">
         <v>2</v>
@@ -17603,10 +17507,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>917</v>
+        <v>895</v>
       </c>
       <c r="F474" t="s">
-        <v>918</v>
+        <v>896</v>
       </c>
       <c r="G474" t="n">
         <v>2</v>
@@ -17632,10 +17536,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>919</v>
+        <v>897</v>
       </c>
       <c r="F475" t="s">
-        <v>920</v>
+        <v>898</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17661,10 +17565,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>921</v>
+        <v>899</v>
       </c>
       <c r="F476" t="s">
-        <v>922</v>
+        <v>900</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17690,10 +17594,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>923</v>
+        <v>901</v>
       </c>
       <c r="F477" t="s">
-        <v>924</v>
+        <v>902</v>
       </c>
       <c r="G477" t="n">
         <v>3</v>
@@ -17719,10 +17623,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>925</v>
+        <v>903</v>
       </c>
       <c r="F478" t="s">
-        <v>926</v>
+        <v>904</v>
       </c>
       <c r="G478" t="n">
         <v>3</v>
@@ -17748,10 +17652,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>927</v>
+        <v>905</v>
       </c>
       <c r="F479" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
       <c r="G479" t="n">
         <v>2</v>
@@ -17777,10 +17681,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>929</v>
+        <v>907</v>
       </c>
       <c r="F480" t="s">
-        <v>930</v>
+        <v>908</v>
       </c>
       <c r="G480" t="n">
         <v>4</v>
@@ -17806,10 +17710,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>931</v>
+        <v>909</v>
       </c>
       <c r="F481" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="G481" t="n">
         <v>2</v>
@@ -17835,10 +17739,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
       <c r="F482" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="G482" t="n">
         <v>2</v>
@@ -17864,10 +17768,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="F483" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
       <c r="G483" t="n">
         <v>2</v>
@@ -17893,10 +17797,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>937</v>
+        <v>915</v>
       </c>
       <c r="F484" t="s">
-        <v>938</v>
+        <v>141</v>
       </c>
       <c r="G484" t="n">
         <v>5</v>
@@ -17922,10 +17826,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>939</v>
+        <v>916</v>
       </c>
       <c r="F485" t="s">
-        <v>940</v>
+        <v>917</v>
       </c>
       <c r="G485" t="n">
         <v>3</v>
@@ -17951,10 +17855,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>941</v>
+        <v>918</v>
       </c>
       <c r="F486" t="s">
-        <v>942</v>
+        <v>919</v>
       </c>
       <c r="G486" t="n">
         <v>3</v>
@@ -17980,10 +17884,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>943</v>
+        <v>920</v>
       </c>
       <c r="F487" t="s">
-        <v>944</v>
+        <v>921</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -18009,10 +17913,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>945</v>
+        <v>922</v>
       </c>
       <c r="F488" t="s">
-        <v>946</v>
+        <v>923</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -18038,10 +17942,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>947</v>
+        <v>924</v>
       </c>
       <c r="F489" t="s">
-        <v>948</v>
+        <v>925</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18067,10 +17971,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>949</v>
+        <v>926</v>
       </c>
       <c r="F490" t="s">
-        <v>950</v>
+        <v>927</v>
       </c>
       <c r="G490" t="n">
         <v>2</v>
@@ -18096,10 +18000,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>951</v>
+        <v>928</v>
       </c>
       <c r="F491" t="s">
-        <v>952</v>
+        <v>929</v>
       </c>
       <c r="G491" t="n">
         <v>3</v>
@@ -18125,10 +18029,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="F492" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18154,10 +18058,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="F493" t="s">
-        <v>956</v>
+        <v>933</v>
       </c>
       <c r="G493" t="n">
         <v>5</v>
@@ -18183,10 +18087,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>957</v>
+        <v>934</v>
       </c>
       <c r="F494" t="s">
-        <v>958</v>
+        <v>935</v>
       </c>
       <c r="G494" t="n">
         <v>2</v>
@@ -18212,10 +18116,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>959</v>
+        <v>936</v>
       </c>
       <c r="F495" t="s">
-        <v>960</v>
+        <v>204</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18241,10 +18145,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>961</v>
+        <v>937</v>
       </c>
       <c r="F496" t="s">
-        <v>962</v>
+        <v>938</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18270,10 +18174,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>963</v>
+        <v>939</v>
       </c>
       <c r="F497" t="s">
-        <v>964</v>
+        <v>940</v>
       </c>
       <c r="G497" t="n">
         <v>3</v>
@@ -18299,10 +18203,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>965</v>
+        <v>941</v>
       </c>
       <c r="F498" t="s">
-        <v>966</v>
+        <v>942</v>
       </c>
       <c r="G498" t="n">
         <v>2</v>
@@ -18328,10 +18232,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>967</v>
+        <v>943</v>
       </c>
       <c r="F499" t="s">
-        <v>968</v>
+        <v>944</v>
       </c>
       <c r="G499" t="n">
         <v>2</v>
@@ -18357,10 +18261,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>969</v>
+        <v>945</v>
       </c>
       <c r="F500" t="s">
-        <v>970</v>
+        <v>946</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18386,10 +18290,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>971</v>
+        <v>947</v>
       </c>
       <c r="F501" t="s">
-        <v>972</v>
+        <v>948</v>
       </c>
       <c r="G501" t="n">
         <v>3</v>
@@ -18415,10 +18319,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>971</v>
+        <v>947</v>
       </c>
       <c r="F502" t="s">
-        <v>972</v>
+        <v>948</v>
       </c>
       <c r="G502" t="n">
         <v>2</v>
@@ -18444,10 +18348,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>973</v>
+        <v>949</v>
       </c>
       <c r="F503" t="s">
-        <v>974</v>
+        <v>950</v>
       </c>
       <c r="G503" t="n">
         <v>2</v>
@@ -18473,10 +18377,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>975</v>
+        <v>951</v>
       </c>
       <c r="F504" t="s">
-        <v>976</v>
+        <v>952</v>
       </c>
       <c r="G504" t="n">
         <v>2</v>
@@ -18502,10 +18406,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>977</v>
+        <v>953</v>
       </c>
       <c r="F505" t="s">
-        <v>978</v>
+        <v>954</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18531,10 +18435,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>979</v>
+        <v>955</v>
       </c>
       <c r="F506" t="s">
-        <v>980</v>
+        <v>956</v>
       </c>
       <c r="G506" t="n">
         <v>2</v>
@@ -18560,10 +18464,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>981</v>
+        <v>957</v>
       </c>
       <c r="F507" t="s">
-        <v>982</v>
+        <v>958</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18589,10 +18493,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>983</v>
+        <v>959</v>
       </c>
       <c r="F508" t="s">
-        <v>984</v>
+        <v>960</v>
       </c>
       <c r="G508" t="n">
         <v>2</v>
@@ -18618,10 +18522,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>985</v>
+        <v>961</v>
       </c>
       <c r="F509" t="s">
-        <v>986</v>
+        <v>962</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18647,10 +18551,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>987</v>
+        <v>963</v>
       </c>
       <c r="F510" t="s">
-        <v>988</v>
+        <v>964</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18676,10 +18580,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>989</v>
+        <v>965</v>
       </c>
       <c r="F511" t="s">
-        <v>990</v>
+        <v>966</v>
       </c>
       <c r="G511" t="n">
         <v>2</v>
@@ -18705,10 +18609,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>991</v>
+        <v>967</v>
       </c>
       <c r="F512" t="s">
-        <v>992</v>
+        <v>968</v>
       </c>
       <c r="G512" t="n">
         <v>2</v>
@@ -18734,10 +18638,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>993</v>
+        <v>969</v>
       </c>
       <c r="F513" t="s">
-        <v>994</v>
+        <v>970</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18763,10 +18667,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>995</v>
+        <v>971</v>
       </c>
       <c r="F514" t="s">
-        <v>996</v>
+        <v>972</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18792,10 +18696,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>997</v>
+        <v>973</v>
       </c>
       <c r="F515" t="s">
-        <v>998</v>
+        <v>974</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18821,10 +18725,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>999</v>
+        <v>975</v>
       </c>
       <c r="F516" t="s">
-        <v>1000</v>
+        <v>976</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18850,10 +18754,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>1001</v>
+        <v>977</v>
       </c>
       <c r="F517" t="s">
-        <v>1002</v>
+        <v>978</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18879,10 +18783,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>1003</v>
+        <v>979</v>
       </c>
       <c r="F518" t="s">
-        <v>1004</v>
+        <v>980</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18908,10 +18812,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>1005</v>
+        <v>981</v>
       </c>
       <c r="F519" t="s">
-        <v>1006</v>
+        <v>982</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18937,10 +18841,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>1007</v>
+        <v>983</v>
       </c>
       <c r="F520" t="s">
-        <v>1008</v>
+        <v>984</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18966,10 +18870,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>1009</v>
+        <v>985</v>
       </c>
       <c r="F521" t="s">
-        <v>1010</v>
+        <v>986</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18995,10 +18899,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>1011</v>
+        <v>987</v>
       </c>
       <c r="F522" t="s">
-        <v>1012</v>
+        <v>988</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -19024,10 +18928,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>1013</v>
+        <v>989</v>
       </c>
       <c r="F523" t="s">
-        <v>1014</v>
+        <v>990</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -19053,10 +18957,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1015</v>
+        <v>991</v>
       </c>
       <c r="F524" t="s">
-        <v>1016</v>
+        <v>992</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19082,10 +18986,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1017</v>
+        <v>993</v>
       </c>
       <c r="F525" t="s">
-        <v>1018</v>
+        <v>994</v>
       </c>
       <c r="G525" t="n">
         <v>4</v>
@@ -19111,10 +19015,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1019</v>
+        <v>995</v>
       </c>
       <c r="F526" t="s">
-        <v>1020</v>
+        <v>996</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19140,10 +19044,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1021</v>
+        <v>997</v>
       </c>
       <c r="F527" t="s">
-        <v>1022</v>
+        <v>998</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19169,10 +19073,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1023</v>
+        <v>999</v>
       </c>
       <c r="F528" t="s">
-        <v>1024</v>
+        <v>1000</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19198,10 +19102,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1025</v>
+        <v>1001</v>
       </c>
       <c r="F529" t="s">
-        <v>1026</v>
+        <v>1002</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19227,10 +19131,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1027</v>
+        <v>1003</v>
       </c>
       <c r="F530" t="s">
-        <v>1028</v>
+        <v>1004</v>
       </c>
       <c r="G530" t="n">
         <v>2</v>
@@ -19256,10 +19160,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1029</v>
+        <v>1005</v>
       </c>
       <c r="F531" t="s">
-        <v>1030</v>
+        <v>1006</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19285,10 +19189,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1031</v>
+        <v>1007</v>
       </c>
       <c r="F532" t="s">
-        <v>1032</v>
+        <v>1008</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19314,10 +19218,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1033</v>
+        <v>1009</v>
       </c>
       <c r="F533" t="s">
-        <v>1034</v>
+        <v>1010</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19343,10 +19247,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1035</v>
+        <v>1011</v>
       </c>
       <c r="F534" t="s">
-        <v>1036</v>
+        <v>1012</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19372,10 +19276,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1037</v>
+        <v>1013</v>
       </c>
       <c r="F535" t="s">
-        <v>1038</v>
+        <v>319</v>
       </c>
       <c r="G535" t="n">
         <v>2</v>
@@ -19401,10 +19305,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="F536" t="s">
-        <v>1040</v>
+        <v>1015</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19430,10 +19334,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>963</v>
+        <v>939</v>
       </c>
       <c r="F537" t="s">
-        <v>964</v>
+        <v>940</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19459,10 +19363,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>965</v>
+        <v>941</v>
       </c>
       <c r="F538" t="s">
-        <v>966</v>
+        <v>942</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19488,10 +19392,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1041</v>
+        <v>1016</v>
       </c>
       <c r="F539" t="s">
-        <v>1042</v>
+        <v>1017</v>
       </c>
       <c r="G539" t="n">
         <v>2</v>
@@ -19517,10 +19421,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1043</v>
+        <v>1018</v>
       </c>
       <c r="F540" t="s">
-        <v>1044</v>
+        <v>1019</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19546,10 +19450,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>979</v>
+        <v>955</v>
       </c>
       <c r="F541" t="s">
-        <v>980</v>
+        <v>956</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19575,10 +19479,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1045</v>
+        <v>1020</v>
       </c>
       <c r="F542" t="s">
-        <v>1046</v>
+        <v>1021</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19604,10 +19508,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1047</v>
+        <v>1022</v>
       </c>
       <c r="F543" t="s">
-        <v>1048</v>
+        <v>1023</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19633,10 +19537,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1049</v>
+        <v>1024</v>
       </c>
       <c r="F544" t="s">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="G544" t="n">
         <v>2</v>
@@ -19662,10 +19566,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1051</v>
+        <v>1026</v>
       </c>
       <c r="F545" t="s">
-        <v>1052</v>
+        <v>1027</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19691,10 +19595,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>989</v>
+        <v>965</v>
       </c>
       <c r="F546" t="s">
-        <v>990</v>
+        <v>966</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19720,10 +19624,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>991</v>
+        <v>967</v>
       </c>
       <c r="F547" t="s">
-        <v>992</v>
+        <v>968</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19749,10 +19653,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>885</v>
+        <v>865</v>
       </c>
       <c r="F548" t="s">
-        <v>886</v>
+        <v>866</v>
       </c>
       <c r="G548" t="n">
         <v>2</v>
@@ -19778,10 +19682,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1053</v>
+        <v>1028</v>
       </c>
       <c r="F549" t="s">
-        <v>1054</v>
+        <v>1029</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19807,10 +19711,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1055</v>
+        <v>1030</v>
       </c>
       <c r="F550" t="s">
-        <v>1056</v>
+        <v>1031</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19836,10 +19740,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1057</v>
+        <v>1032</v>
       </c>
       <c r="F551" t="s">
-        <v>1058</v>
+        <v>1033</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19865,10 +19769,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1059</v>
+        <v>1034</v>
       </c>
       <c r="F552" t="s">
-        <v>1060</v>
+        <v>1035</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19894,10 +19798,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1061</v>
+        <v>1036</v>
       </c>
       <c r="F553" t="s">
-        <v>1062</v>
+        <v>1037</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -19923,10 +19827,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1063</v>
+        <v>1038</v>
       </c>
       <c r="F554" t="s">
-        <v>1064</v>
+        <v>1039</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -19952,10 +19856,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1065</v>
+        <v>1040</v>
       </c>
       <c r="F555" t="s">
-        <v>1066</v>
+        <v>1041</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -19981,10 +19885,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="F556" t="s">
-        <v>1068</v>
+        <v>1043</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -20010,10 +19914,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1069</v>
+        <v>1044</v>
       </c>
       <c r="F557" t="s">
-        <v>1070</v>
+        <v>1045</v>
       </c>
       <c r="G557" t="n">
         <v>15</v>
@@ -20039,10 +19943,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1071</v>
+        <v>1046</v>
       </c>
       <c r="F558" t="s">
-        <v>1072</v>
+        <v>1047</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20068,10 +19972,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1073</v>
+        <v>1048</v>
       </c>
       <c r="F559" t="s">
-        <v>1074</v>
+        <v>1049</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20097,10 +20001,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1075</v>
+        <v>1050</v>
       </c>
       <c r="F560" t="s">
-        <v>1076</v>
+        <v>1051</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20126,10 +20030,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1077</v>
+        <v>1052</v>
       </c>
       <c r="F561" t="s">
-        <v>1078</v>
+        <v>1053</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20155,10 +20059,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1079</v>
+        <v>1054</v>
       </c>
       <c r="F562" t="s">
-        <v>1080</v>
+        <v>1055</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20184,10 +20088,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1081</v>
+        <v>1056</v>
       </c>
       <c r="F563" t="s">
-        <v>1082</v>
+        <v>234</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20213,10 +20117,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1083</v>
+        <v>1057</v>
       </c>
       <c r="F564" t="s">
-        <v>1084</v>
+        <v>1058</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20242,10 +20146,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1085</v>
+        <v>1059</v>
       </c>
       <c r="F565" t="s">
-        <v>1086</v>
+        <v>1060</v>
       </c>
       <c r="G565" t="n">
         <v>2</v>
@@ -20271,10 +20175,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1087</v>
+        <v>1061</v>
       </c>
       <c r="F566" t="s">
-        <v>1088</v>
+        <v>1062</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20300,10 +20204,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1089</v>
+        <v>1063</v>
       </c>
       <c r="F567" t="s">
-        <v>1090</v>
+        <v>295</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20329,10 +20233,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1091</v>
+        <v>1064</v>
       </c>
       <c r="F568" t="s">
-        <v>1092</v>
+        <v>293</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20358,10 +20262,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1093</v>
+        <v>1065</v>
       </c>
       <c r="F569" t="s">
-        <v>1094</v>
+        <v>1066</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20387,10 +20291,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1095</v>
+        <v>1067</v>
       </c>
       <c r="F570" t="s">
-        <v>1096</v>
+        <v>1068</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20416,10 +20320,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1097</v>
+        <v>1069</v>
       </c>
       <c r="F571" t="s">
-        <v>1098</v>
+        <v>1070</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20445,10 +20349,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1099</v>
+        <v>1071</v>
       </c>
       <c r="F572" t="s">
-        <v>1100</v>
+        <v>931</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20474,10 +20378,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1101</v>
+        <v>1072</v>
       </c>
       <c r="F573" t="s">
-        <v>1102</v>
+        <v>1073</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20503,10 +20407,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1103</v>
+        <v>1074</v>
       </c>
       <c r="F574" t="s">
-        <v>1104</v>
+        <v>1075</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20532,10 +20436,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1105</v>
+        <v>1076</v>
       </c>
       <c r="F575" t="s">
-        <v>1106</v>
+        <v>1077</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20561,10 +20465,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1107</v>
+        <v>1078</v>
       </c>
       <c r="F576" t="s">
-        <v>1108</v>
+        <v>1079</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20590,10 +20494,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1109</v>
+        <v>1080</v>
       </c>
       <c r="F577" t="s">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20619,10 +20523,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1111</v>
+        <v>1081</v>
       </c>
       <c r="F578" t="s">
-        <v>1112</v>
+        <v>657</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20648,10 +20552,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1113</v>
+        <v>1082</v>
       </c>
       <c r="F579" t="s">
-        <v>1114</v>
+        <v>1083</v>
       </c>
       <c r="G579" t="n">
         <v>2</v>
@@ -20677,10 +20581,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1115</v>
+        <v>1084</v>
       </c>
       <c r="F580" t="s">
-        <v>1116</v>
+        <v>1085</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20706,10 +20610,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1117</v>
+        <v>1086</v>
       </c>
       <c r="F581" t="s">
-        <v>1118</v>
+        <v>1087</v>
       </c>
       <c r="G581" t="n">
         <v>2</v>
@@ -20735,10 +20639,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1119</v>
+        <v>1088</v>
       </c>
       <c r="F582" t="s">
-        <v>1120</v>
+        <v>1089</v>
       </c>
       <c r="G582" t="n">
         <v>3</v>
@@ -20764,10 +20668,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1121</v>
+        <v>1090</v>
       </c>
       <c r="F583" t="s">
-        <v>1122</v>
+        <v>1091</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -20793,10 +20697,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1123</v>
+        <v>1092</v>
       </c>
       <c r="F584" t="s">
-        <v>1124</v>
+        <v>678</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -20822,10 +20726,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1125</v>
+        <v>1093</v>
       </c>
       <c r="F585" t="s">
-        <v>1126</v>
+        <v>1094</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -20851,10 +20755,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1127</v>
+        <v>1095</v>
       </c>
       <c r="F586" t="s">
-        <v>1128</v>
+        <v>1096</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -20880,10 +20784,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1129</v>
+        <v>1097</v>
       </c>
       <c r="F587" t="s">
-        <v>1130</v>
+        <v>1098</v>
       </c>
       <c r="G587" t="n">
         <v>3</v>
@@ -20909,10 +20813,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1131</v>
+        <v>1099</v>
       </c>
       <c r="F588" t="s">
-        <v>1132</v>
+        <v>1100</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -20938,10 +20842,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1133</v>
+        <v>1101</v>
       </c>
       <c r="F589" t="s">
-        <v>1134</v>
+        <v>1102</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -20967,10 +20871,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1135</v>
+        <v>1103</v>
       </c>
       <c r="F590" t="s">
-        <v>1136</v>
+        <v>1104</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -20996,10 +20900,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1137</v>
+        <v>1105</v>
       </c>
       <c r="F591" t="s">
-        <v>1138</v>
+        <v>1106</v>
       </c>
       <c r="G591" t="n">
         <v>3</v>
@@ -21025,10 +20929,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1139</v>
+        <v>1107</v>
       </c>
       <c r="F592" t="s">
-        <v>1140</v>
+        <v>1108</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21054,10 +20958,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1141</v>
+        <v>1109</v>
       </c>
       <c r="F593" t="s">
-        <v>1142</v>
+        <v>1110</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -21083,10 +20987,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1143</v>
+        <v>1111</v>
       </c>
       <c r="F594" t="s">
-        <v>1144</v>
+        <v>1112</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -21112,10 +21016,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1145</v>
+        <v>1113</v>
       </c>
       <c r="F595" t="s">
-        <v>1146</v>
+        <v>1114</v>
       </c>
       <c r="G595" t="n">
         <v>3</v>
@@ -21141,10 +21045,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1147</v>
+        <v>1115</v>
       </c>
       <c r="F596" t="s">
-        <v>1148</v>
+        <v>1116</v>
       </c>
       <c r="G596" t="n">
         <v>6</v>
@@ -21170,10 +21074,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1149</v>
+        <v>1117</v>
       </c>
       <c r="F597" t="s">
-        <v>1150</v>
+        <v>1118</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21199,10 +21103,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1151</v>
+        <v>1119</v>
       </c>
       <c r="F598" t="s">
-        <v>1152</v>
+        <v>1120</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21228,10 +21132,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1153</v>
+        <v>1121</v>
       </c>
       <c r="F599" t="s">
-        <v>1154</v>
+        <v>1122</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21257,10 +21161,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F600" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21286,10 +21190,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1155</v>
+        <v>1123</v>
       </c>
       <c r="F601" t="s">
-        <v>1156</v>
+        <v>1124</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -21315,10 +21219,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1157</v>
+        <v>1125</v>
       </c>
       <c r="F602" t="s">
-        <v>1158</v>
+        <v>1126</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21344,10 +21248,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1159</v>
+        <v>1127</v>
       </c>
       <c r="F603" t="s">
-        <v>1160</v>
+        <v>1128</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21373,10 +21277,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1161</v>
+        <v>1129</v>
       </c>
       <c r="F604" t="s">
-        <v>1162</v>
+        <v>1130</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -21402,10 +21306,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1163</v>
+        <v>1131</v>
       </c>
       <c r="F605" t="s">
-        <v>1164</v>
+        <v>1132</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21431,10 +21335,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1165</v>
+        <v>1133</v>
       </c>
       <c r="F606" t="s">
-        <v>1166</v>
+        <v>1134</v>
       </c>
       <c r="G606" t="n">
         <v>3</v>
@@ -21460,10 +21364,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1165</v>
+        <v>1133</v>
       </c>
       <c r="F607" t="s">
-        <v>1167</v>
+        <v>1135</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
